--- a/note/etc/kafka/kafka config.xlsx
+++ b/note/etc/kafka/kafka config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10575" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="broker config" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Specifies the ZooKeeper connection string in the form </t>
     </r>
     <r>
@@ -144,6 +150,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>DEPRECATED: only used when </t>
     </r>
     <r>
@@ -227,6 +239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Listeners to publish to ZooKeeper for clients to use, if different than the </t>
     </r>
     <r>
@@ -292,6 +310,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>DEPRECATED: only used when </t>
     </r>
     <r>
@@ -411,6 +435,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>DEPRECATED: only used when </t>
     </r>
     <r>
@@ -596,6 +626,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>This can be set per topic with the topic level</t>
     </r>
     <r>
@@ -742,6 +778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>DEPRECATED: only used when </t>
     </r>
     <r>
@@ -1206,6 +1248,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum number of connections we allow in the broker at any time. This limit is applied in addition to any per-ip limits configured using max.connections.per.ip. Listener-level limits may also be configured by prefixing the config name with the listener prefix, for example, </t>
     </r>
     <r>
@@ -1268,6 +1316,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The fully qualified name of a class that implements the KafkaPrincipalBuilder interface, which is used to build the KafkaPrincipal object used during authorization. This config also supports the deprecated PrincipalBuilder interface which was previously used for client authentication over SSL. If no principal builder is defined, the default behavior depends on the security protocol in use. For SSL authentication, the principal will be derived using the rules defined by </t>
     </r>
     <r>
@@ -1333,6 +1387,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The number of bytes of messages to attempt to fetch for each partition. This is not an absolute maximum, if the first record batch in the first non-empty partition of the fetch is larger than this value, the record batch will still be returned to ensure that progress can be made. The maximum record batch size accepted by the broker is defined via </t>
     </r>
     <r>
@@ -1377,6 +1437,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Maximum bytes expected for the entire fetch response. Records are fetched in batches, and if the first record batch in the first non-empty partition of the fetch is larger than this value, the record batch will still be returned to ensure that progress can be made. As such, this is not an absolute maximum. The maximum record batch size accepted by the broker is defined via </t>
     </r>
     <r>
@@ -1559,6 +1625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>ssl.client.auth=required</t>
     </r>
     <r>
@@ -1582,6 +1654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>ssl.client.auth=requested</t>
     </r>
     <r>
@@ -1605,6 +1683,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>ssl.client.auth=none</t>
     </r>
     <r>
@@ -1718,6 +1802,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The alter configs policy class that should be used for validation. The class should implement the </t>
     </r>
     <r>
@@ -1777,6 +1867,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The create topic policy class that should be used for validation. The class should implement the </t>
     </r>
     <r>
@@ -1815,6 +1911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A list of classes to use as Yammer metrics custom reporters. The reporters should implement </t>
     </r>
     <r>
@@ -1859,6 +1961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Map between listener names and security protocols. This must be defined for the same security protocol to be usable in more than one port or IP. For example, internal and external traffic can be separated even if SSL is required for both. Concretely, the user could define listeners with names INTERNAL and EXTERNAL and this property as: `INTERNAL:SSL,EXTERNAL:SSL`. As shown, key and value are separated by a colon and map entries are separated by commas. Each listener name should only appear once in the map. Different security (SSL and SASL) settings can be configured for each listener by adding a normalised prefix (the listener name is lowercased) to the config name. For example, to set a different keystore for the INTERNAL listener, a config with name </t>
     </r>
     <r>
@@ -1906,6 +2014,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>This configuration controls whether down-conversion of message formats is enabled to satisfy consume requests. When set to </t>
     </r>
     <r>
@@ -1950,6 +2064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A list of classes to use as metrics reporters. Implementing the </t>
     </r>
     <r>
@@ -2081,6 +2201,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The interval at which to remove transactions that have expired due to </t>
     </r>
     <r>
@@ -2209,6 +2335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>When used together, </t>
     </r>
     <r>
@@ -2340,6 +2472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Serializer class for key that implements the </t>
     </r>
     <r>
@@ -2366,6 +2504,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Serializer class for value that implements the </t>
     </r>
     <r>
@@ -2398,6 +2542,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>acks=0</t>
     </r>
     <r>
@@ -2457,6 +2607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>acks=1</t>
     </r>
     <r>
@@ -2480,6 +2636,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>acks=all</t>
     </r>
     <r>
@@ -2506,6 +2668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A list of host/port pairs to use for establishing the initial connection to the Kafka cluster. The client will make use of all servers irrespective of which servers are specified here for bootstrapping—this list only impacts the initial hosts used to discover the full set of servers. This list should be in the form </t>
     </r>
     <r>
@@ -2535,6 +2703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The total bytes of memory the producer can use to buffer records waiting to be sent to the server. If records are sent faster than they can be delivered to the server the producer will block for </t>
     </r>
     <r>
@@ -2561,6 +2735,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The compression type for all data generated by the producer. The default is none (i.e. no compression). Valid values are </t>
     </r>
     <r>
@@ -2659,6 +2839,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Setting a value greater than zero will cause the client to resend any record whose send fails with a potentially transient error. Note that this retry is no different than if the client resent the record upon receiving the error. Allowing retries without setting </t>
     </r>
     <r>
@@ -2748,6 +2934,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>If set to</t>
     </r>
     <r>
@@ -2789,6 +2981,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>If the value is</t>
     </r>
     <r>
@@ -2842,6 +3040,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>An upper bound on the time to report success or failure after a call to </t>
     </r>
     <r>
@@ -2904,6 +3108,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The producer groups together any records that arrive in between request transmissions into a single batched request. Normally this occurs only under load when records arrive faster than they can be sent out. However in some circumstances the client may want to reduce the number of requests even under moderate load. This setting accomplishes this by adding a small amount of artificial delay—that is, rather than immediately sending out a record the producer will wait for up to the given delay to allow other records to be sent so that the sends can be batched together. This can be thought of as analogous to Nagle's algorithm in TCP. This setting gives the upper bound on the delay for batching: once we get </t>
     </r>
     <r>
@@ -2948,6 +3158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The configuration controls how long </t>
     </r>
     <r>
@@ -2998,6 +3214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Partitioner class that implements the </t>
     </r>
     <r>
@@ -3030,6 +3252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The configuration controls the maximum amount of time the client will wait for the response of a request. If the response is not received before the timeout elapses the client will resend the request if necessary or fail the request if retries are exhausted. This should be larger than </t>
     </r>
     <r>
@@ -3074,6 +3302,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>When set to 'true', the producer will ensure that exactly one copy of each message is written in the stream. If 'false', producer retries due to broker failures, etc., may write duplicates of the retried message in the stream. Note that enabling idempotence requires </t>
     </r>
     <r>
@@ -3154,6 +3388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A list of classes to use as interceptors. Implementing the </t>
     </r>
     <r>
@@ -3225,6 +3465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum amount of time in ms that the transaction coordinator will wait for a transaction status update from the producer before proactively aborting the ongoing transaction.If this value is larger than the transaction.max.timeout.ms setting in the broker, the request will fail with a </t>
     </r>
     <r>
@@ -3251,6 +3497,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The TransactionalId to use for transactional delivery. This enables reliability semantics which span multiple producer sessions since it allows the client to guarantee that transactions using the same TransactionalId have been completed prior to starting any new transactions. If no TransactionalId is provided, then the producer is limited to idempotent delivery. Note that </t>
     </r>
     <r>
@@ -3316,6 +3568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Deserializer class for key that implements the </t>
     </r>
     <r>
@@ -3342,6 +3600,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Deserializer class for value that implements the </t>
     </r>
     <r>
@@ -3374,6 +3638,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A unique string that identifies the consumer group this consumer belongs to. This property is required if the consumer uses either the group management functionality by using </t>
     </r>
     <r>
@@ -3400,6 +3670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The expected time between heartbeats to the consumer coordinator when using Kafka's group management facilities. Heartbeats are used to ensure that the consumer's session stays active and to facilitate rebalancing when new consumers join or leave the group. The value must be set lower than </t>
     </r>
     <r>
@@ -3426,6 +3702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum amount of data per-partition the server will return. Records are fetched in batches by the consumer. If the first record batch in the first non-empty partition of the fetch is larger than this limit, the batch will still be returned to ensure that the consumer can make progress. The maximum record batch size accepted by the broker is defined via </t>
     </r>
     <r>
@@ -3470,6 +3752,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The timeout used to detect consumer failures when using Kafka's group management facility. The consumer sends periodic heartbeats to indicate its liveness to the broker. If no heartbeats are received by the broker before the expiration of this session timeout, then the broker will remove this consumer from the group and initiate a rebalance. Note that the value must be in the allowable range as configured in the broker configuration by </t>
     </r>
     <r>
@@ -3544,6 +3832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Specifies the timeout (in milliseconds) for consumer APIs that could block. This configuration is used as the default timeout for all consumer operations that do not explicitly accept a </t>
     </r>
     <r>
@@ -3582,6 +3876,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The maximum amount of data the server should return for a fetch request. Records are fetched in batches by the consumer, and if the first record batch in the first non-empty partition of the fetch is larger than this value, the record batch will still be returned to ensure that the consumer can make progress. As such, this is not a absolute maximum. The maximum record batch size accepted by the broker is defined via </t>
     </r>
     <r>
@@ -3632,6 +3932,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Controls how to read messages written transactionally. If set to</t>
     </r>
     <r>
@@ -3697,6 +4003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Messages will always be returned in offset order. Hence, in</t>
     </r>
     <r>
@@ -3774,6 +4086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Further, when in</t>
     </r>
     <r>
@@ -3839,6 +4157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The frequency in milliseconds that the consumer offsets are auto-committed to Kafka if </t>
     </r>
     <r>
@@ -3898,6 +4222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A list of classes to use as interceptors. Implementing the </t>
     </r>
     <r>
@@ -3957,6 +4287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The expected time between heartbeats to the group coordinator when using Kafka's group management facilities. Heartbeats are used to ensure that the worker's session stays active and to facilitate rebalancing when new members join or leave the group. The value must be set lower than </t>
     </r>
     <r>
@@ -3986,6 +4322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The timeout used to detect worker failures. The worker sends periodic heartbeats to indicate its liveness to the broker. If no heartbeats are received by the broker before the expiration of this session timeout, then the broker will remove the worker from the group and initiate a rebalance. Note that the value must be in the allowable range as configured in the broker configuration by </t>
     </r>
     <r>
@@ -4030,6 +4372,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Class name or alias of implementation of </t>
     </r>
     <r>
@@ -4083,6 +4431,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Comma-separated names of </t>
     </r>
     <r>
@@ -4220,6 +4574,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Comma-separated names of </t>
     </r>
     <r>
@@ -4378,6 +4738,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Regular expression giving topics to consume. Under the hood, the regex is compiled to a </t>
     </r>
     <r>
@@ -4419,6 +4785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>If true, add headers containing error context to the messages written to the dead letter queue. To avoid clashing with headers from the original record, all error context header keys, all error context header keys will start with </t>
     </r>
     <r>
@@ -4466,6 +4838,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Exception handling class that implements the </t>
     </r>
     <r>
@@ -4495,6 +4873,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Default serializer / deserializer class for key that implements the </t>
     </r>
     <r>
@@ -4542,6 +4926,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Exception handling class that implements the </t>
     </r>
     <r>
@@ -4571,6 +4961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Default timestamp extractor class that implements the </t>
     </r>
     <r>
@@ -4600,6 +4996,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Default serializer / deserializer class for value that implements the </t>
     </r>
     <r>
@@ -4662,6 +5064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The processing guarantee that should be used. Possible values are </t>
     </r>
     <r>
@@ -4766,6 +5174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The frequency with which to save the position of the processor. (Note, if </t>
     </r>
     <r>
@@ -4846,6 +5260,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Partition grouper class that implements the </t>
     </r>
     <r>
@@ -4884,6 +5304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>A Rocks DB config setter class or class name that implements the </t>
     </r>
     <r>
@@ -4910,6 +5336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The amount of time in milliseconds to wait before deleting state when a partition has migrated. Only state directories that have not been modified for at least </t>
     </r>
     <r>
@@ -4955,12 +5387,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4987,8 +5419,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4996,7 +5474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5011,38 +5489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5062,32 +5509,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5102,43 +5532,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5159,19 +5584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5189,37 +5608,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5237,31 +5668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5291,19 +5698,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5325,24 +5762,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5353,17 +5772,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5378,16 +5806,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5427,174 +5855,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5971,13 +6390,20 @@
   <sheetPr/>
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="37.25" style="1" customWidth="1"/>
+    <col min="1" max="2" width="37.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="37.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
@@ -9732,7 +10158,6 @@
     </row>
     <row r="155" ht="14.25" spans="1:8">
       <c r="A155" s="4"/>
-      <c r="B155" s="1"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -9786,7 +10211,6 @@
     </row>
     <row r="159" ht="14.25" spans="1:8">
       <c r="A159" s="4"/>
-      <c r="B159" s="1"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -10871,7 +11295,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11000,7 +11424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" ht="85.5" spans="1:7">
+    <row r="6" ht="71.25" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>449</v>
       </c>
@@ -11046,7 +11470,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" ht="57" spans="1:7">
+    <row r="8" ht="42.75" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>453</v>
       </c>
@@ -11092,7 +11516,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" ht="57" spans="1:7">
+    <row r="10" ht="42.75" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>458</v>
       </c>
@@ -11181,7 +11605,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="99.75" spans="1:7">
+    <row r="15" ht="85.5" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>462</v>
       </c>
@@ -11204,7 +11628,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" ht="71.25" spans="1:7">
+    <row r="16" ht="57" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>463</v>
       </c>
@@ -11319,7 +11743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" ht="72.75" spans="1:7">
+    <row r="21" ht="58.5" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>471</v>
@@ -11351,7 +11775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" ht="71.25" spans="1:7">
+    <row r="23" ht="57" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>474</v>
       </c>
@@ -11372,7 +11796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" ht="57" spans="1:7">
+    <row r="24" ht="42.75" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>476</v>
       </c>
@@ -11395,7 +11819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:7">
+    <row r="25" ht="28.5" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>479</v>
       </c>
@@ -11418,7 +11842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" ht="42.75" spans="1:7">
+    <row r="26" ht="28.5" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>481</v>
       </c>
@@ -11508,7 +11932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" ht="87" spans="1:7">
+    <row r="30" ht="72.75" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>488</v>
       </c>
@@ -11975,7 +12399,6 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -11993,7 +12416,6 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -13133,7 +13555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>348</v>
       </c>
@@ -13169,7 +13591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="42.75" spans="1:6">
+    <row r="12" ht="28.5" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>355</v>
       </c>
@@ -13187,7 +13609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>368</v>
       </c>
@@ -13205,7 +13627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="42.75" spans="1:6">
+    <row r="14" ht="28.5" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>370</v>
       </c>
@@ -13337,9 +13759,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -13355,9 +13776,8 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" ht="14.25" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -13373,7 +13793,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="42.75" spans="1:6">
+    <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>183</v>
       </c>
@@ -13411,7 +13831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:6">
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>593</v>
       </c>
@@ -13429,7 +13849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:6">
+    <row r="31" ht="28.5" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>595</v>
       </c>
@@ -13561,7 +13981,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:6">
+    <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>609</v>
       </c>
@@ -13581,7 +14001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" ht="99.75" spans="1:6">
+    <row r="41" ht="57" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>611</v>
       </c>
@@ -13641,7 +14061,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" ht="57" spans="1:6">
+    <row r="44" ht="28.5" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>297</v>
       </c>
@@ -13677,7 +14097,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" ht="42.75" spans="1:6">
+    <row r="46" ht="28.5" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>311</v>
       </c>
@@ -13787,7 +14207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" ht="42.75" spans="1:6">
+    <row r="52" ht="28.5" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>345</v>
       </c>
@@ -13805,7 +14225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" ht="28.5" spans="1:6">
+    <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="4" t="s">
         <v>357</v>
       </c>
@@ -13859,7 +14279,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" ht="28.5" spans="1:6">
+    <row r="56" ht="14.25" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>372</v>
       </c>
@@ -13877,7 +14297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" ht="42.75" spans="1:6">
+    <row r="57" ht="29.25" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>614</v>
       </c>
@@ -14031,7 +14451,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="65" ht="42.75" spans="1:6">
+    <row r="65" ht="14.25" spans="1:6">
       <c r="A65" s="4" t="s">
         <v>402</v>
       </c>
@@ -14051,7 +14471,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" ht="42.75" spans="1:6">
+    <row r="66" ht="14.25" spans="1:6">
       <c r="A66" s="3" t="s">
         <v>404</v>
       </c>
@@ -14071,7 +14491,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" ht="42.75" spans="1:6">
+    <row r="67" ht="14.25" spans="1:6">
       <c r="A67" s="4" t="s">
         <v>407</v>
       </c>
@@ -14151,7 +14571,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" ht="42.75" spans="1:6">
+    <row r="71" ht="14.25" spans="1:6">
       <c r="A71" s="4" t="s">
         <v>304</v>
       </c>
@@ -14169,7 +14589,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" ht="57" spans="1:6">
+    <row r="72" ht="14.25" spans="1:6">
       <c r="A72" s="3" t="s">
         <v>307</v>
       </c>
@@ -14187,7 +14607,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" ht="57" spans="1:6">
+    <row r="73" ht="14.25" spans="1:6">
       <c r="A73" s="4" t="s">
         <v>313</v>
       </c>
@@ -14205,7 +14625,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" ht="71.25" spans="1:6">
+    <row r="74" ht="28.5" spans="1:6">
       <c r="A74" s="3" t="s">
         <v>315</v>
       </c>
@@ -14321,7 +14741,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" ht="57" spans="1:6">
+    <row r="80" ht="28.5" spans="1:6">
       <c r="A80" s="3" t="s">
         <v>428</v>
       </c>
@@ -14339,7 +14759,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" ht="42.75" spans="1:6">
+    <row r="81" ht="28.5" spans="1:6">
       <c r="A81" s="4" t="s">
         <v>350</v>
       </c>
@@ -14357,7 +14777,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" ht="57" spans="1:6">
+    <row r="82" ht="28.5" spans="1:6">
       <c r="A82" s="3" t="s">
         <v>433</v>
       </c>
@@ -14375,7 +14795,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" ht="42.75" spans="1:6">
+    <row r="83" ht="28.5" spans="1:6">
       <c r="A83" s="4" t="s">
         <v>365</v>
       </c>
@@ -14439,7 +14859,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:6">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14459,7 +14879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>623</v>
       </c>
@@ -14475,7 +14895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>573</v>
       </c>
@@ -14491,7 +14911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="85.5" spans="1:6">
+    <row r="4" ht="57" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>626</v>
       </c>
@@ -14507,7 +14927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>628</v>
       </c>
@@ -14523,7 +14943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:6">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>630</v>
       </c>
@@ -14539,7 +14959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="1:6">
+    <row r="7" ht="57" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>632</v>
       </c>
@@ -14555,7 +14975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="143.25" spans="1:6">
+    <row r="8" ht="100.5" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>499</v>
       </c>
@@ -14573,7 +14993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="114.75" spans="1:6">
+    <row r="9" ht="86.25" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>575</v>
       </c>
@@ -14591,7 +15011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="85.5" spans="1:6">
+    <row r="10" ht="57" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>636</v>
       </c>
@@ -14609,7 +15029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="129.75" spans="1:6">
+    <row r="11" ht="86.25" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>579</v>
       </c>
@@ -14627,7 +15047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:6">
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>348</v>
       </c>
@@ -14699,7 +15119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="42.75" spans="1:6">
+    <row r="16" ht="28.5" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>370</v>
       </c>
@@ -14739,13 +15159,12 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="57.75" spans="1:6">
+    <row r="19" ht="43.5" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>518</v>
@@ -14757,13 +15176,12 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="57.75" spans="1:6">
+    <row r="21" ht="29.25" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>519</v>
@@ -14773,7 +15191,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="28.5" spans="1:6">
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>183</v>
       </c>
@@ -14791,7 +15209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" ht="72" spans="1:6">
+    <row r="23" ht="57.75" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>639</v>
       </c>
@@ -14809,7 +15227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" ht="42.75" spans="1:6">
+    <row r="24" ht="28.5" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>534</v>
       </c>
@@ -14829,7 +15247,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" ht="71.25" spans="1:6">
+    <row r="25" ht="42.75" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>146</v>
       </c>
@@ -14849,7 +15267,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" ht="42.75" spans="1:6">
+    <row r="26" ht="28.5" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>297</v>
       </c>
@@ -14867,7 +15285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" ht="128.25" spans="1:6">
+    <row r="27" ht="85.5" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>302</v>
       </c>
@@ -14903,7 +15321,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" ht="99.75" spans="1:6">
+    <row r="29" ht="71.25" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>317</v>
       </c>
@@ -14921,7 +15339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" ht="71.25" spans="1:6">
+    <row r="30" ht="57" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>319</v>
       </c>
@@ -14939,7 +15357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:6">
+    <row r="31" ht="28.5" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>537</v>
       </c>
@@ -14995,7 +15413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" ht="42.75" spans="1:6">
+    <row r="34" ht="28.5" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>345</v>
       </c>
@@ -15031,7 +15449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" ht="71.25" spans="1:6">
+    <row r="36" ht="57" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>360</v>
       </c>
@@ -15085,7 +15503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" ht="57" spans="1:6">
+    <row r="39" ht="42.75" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>642</v>
       </c>
@@ -15103,7 +15521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" ht="42.75" spans="1:6">
+    <row r="40" ht="28.5" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>644</v>
       </c>
@@ -15121,7 +15539,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" ht="57" spans="1:6">
+    <row r="41" ht="42.75" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>646</v>
       </c>
@@ -15139,7 +15557,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" ht="85.5" spans="1:6">
+    <row r="42" ht="57" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>648</v>
       </c>
@@ -15157,7 +15575,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" ht="57" spans="1:6">
+    <row r="43" ht="42.75" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>520</v>
       </c>
@@ -15175,7 +15593,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="44" ht="72.75" spans="1:6">
+    <row r="44" ht="44.25" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>650</v>
       </c>
@@ -15213,7 +15631,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" ht="28.5" spans="1:6">
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>654</v>
       </c>
@@ -15233,7 +15651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" ht="128.25" spans="1:6">
+    <row r="47" ht="85.5" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>658</v>
       </c>
@@ -15251,7 +15669,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" ht="142.5" spans="1:6">
+    <row r="48" ht="99.75" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>661</v>
       </c>
@@ -15269,7 +15687,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="49" ht="142.5" spans="1:6">
+    <row r="49" ht="99.75" spans="1:6">
       <c r="A49" s="4" t="s">
         <v>664</v>
       </c>
@@ -15287,7 +15705,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="50" ht="71.25" spans="1:6">
+    <row r="50" ht="57" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -15305,7 +15723,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" ht="57" spans="1:6">
+    <row r="51" ht="42.75" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>549</v>
       </c>
@@ -15325,7 +15743,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" ht="72" spans="1:6">
+    <row r="52" ht="57.75" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>400</v>
       </c>
@@ -15421,7 +15839,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" ht="57" spans="1:6">
+    <row r="57" ht="42.75" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>669</v>
       </c>
@@ -15439,7 +15857,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" ht="28.5" spans="1:6">
+    <row r="58" ht="14.25" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>671</v>
       </c>
@@ -15479,7 +15897,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="60" ht="156.75" spans="1:6">
+    <row r="60" ht="99.75" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>675</v>
       </c>
@@ -15497,7 +15915,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" ht="85.5" spans="1:6">
+    <row r="61" ht="57" spans="1:6">
       <c r="A61" s="4" t="s">
         <v>552</v>
       </c>
@@ -15517,7 +15935,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" ht="57" spans="1:6">
+    <row r="62" ht="42.75" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>554</v>
       </c>
@@ -15537,7 +15955,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" ht="28.5" spans="1:6">
+    <row r="63" ht="14.25" spans="1:6">
       <c r="A63" s="4" t="s">
         <v>677</v>
       </c>
@@ -15555,7 +15973,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" ht="28.5" spans="1:6">
+    <row r="64" ht="14.25" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>679</v>
       </c>
@@ -15573,7 +15991,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="65" ht="28.5" spans="1:6">
+    <row r="65" ht="14.25" spans="1:6">
       <c r="A65" s="4" t="s">
         <v>681</v>
       </c>
@@ -15591,7 +16009,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" ht="101.25" spans="1:6">
+    <row r="66" ht="58.5" spans="1:6">
       <c r="A66" s="3" t="s">
         <v>683</v>
       </c>
@@ -15609,7 +16027,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" ht="28.5" spans="1:6">
+    <row r="67" ht="14.25" spans="1:6">
       <c r="A67" s="4" t="s">
         <v>685</v>
       </c>
@@ -15665,7 +16083,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" ht="28.5" spans="1:6">
+    <row r="70" ht="14.25" spans="1:6">
       <c r="A70" s="3" t="s">
         <v>304</v>
       </c>
@@ -15719,7 +16137,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" ht="42.75" spans="1:6">
+    <row r="73" ht="28.5" spans="1:6">
       <c r="A73" s="4" t="s">
         <v>315</v>
       </c>
@@ -15737,7 +16155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" ht="142.5" spans="1:6">
+    <row r="74" ht="99.75" spans="1:6">
       <c r="A74" s="3" t="s">
         <v>321</v>
       </c>
@@ -15757,7 +16175,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" ht="99.75" spans="1:6">
+    <row r="75" ht="71.25" spans="1:6">
       <c r="A75" s="4" t="s">
         <v>323</v>
       </c>
@@ -15777,7 +16195,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" ht="85.5" spans="1:6">
+    <row r="76" ht="57" spans="1:6">
       <c r="A76" s="3" t="s">
         <v>325</v>
       </c>
@@ -15797,7 +16215,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" ht="71.25" spans="1:6">
+    <row r="77" ht="57" spans="1:6">
       <c r="A77" s="4" t="s">
         <v>327</v>
       </c>
@@ -15837,7 +16255,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" ht="71.25" spans="1:6">
+    <row r="79" ht="42.75" spans="1:6">
       <c r="A79" s="4" t="s">
         <v>336</v>
       </c>
@@ -15881,7 +16299,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" ht="29.25" spans="1:6">
+    <row r="82" ht="15" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="6" t="s">
         <v>342</v>
@@ -15891,7 +16309,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" ht="57.75" spans="1:6">
+    <row r="83" ht="43.5" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="6" t="s">
         <v>343</v>
@@ -15901,7 +16319,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" ht="29.25" spans="1:6">
+    <row r="84" ht="15" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="6" t="s">
         <v>344</v>
@@ -15937,7 +16355,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" ht="42.75" spans="1:6">
+    <row r="87" ht="28.5" spans="1:6">
       <c r="A87" s="3" t="s">
         <v>350</v>
       </c>
@@ -15973,7 +16391,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" ht="42.75" spans="1:6">
+    <row r="89" ht="28.5" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>365</v>
       </c>
@@ -15991,7 +16409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="1:6">
+    <row r="90" ht="14.25" spans="1:6">
       <c r="A90" s="4" t="s">
         <v>690</v>
       </c>
@@ -16031,7 +16449,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="92" ht="42.75" spans="1:6">
+    <row r="92" ht="28.5" spans="1:6">
       <c r="A92" s="4" t="s">
         <v>694</v>
       </c>
@@ -16076,7 +16494,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.75" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -16414,7 +16832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="128.25" spans="1:6">
+    <row r="3" ht="71.25" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>699</v>
       </c>
@@ -16430,7 +16848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>701</v>
       </c>
@@ -16450,7 +16868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>721</v>
       </c>
@@ -16468,7 +16886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="57.75" spans="1:6">
+    <row r="6" ht="43.5" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>723</v>
       </c>
@@ -16488,7 +16906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="114" spans="1:6">
+    <row r="7" ht="71.25" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>626</v>
       </c>
@@ -16506,7 +16924,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" ht="114" spans="1:6">
+    <row r="8" ht="71.25" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>632</v>
       </c>
@@ -16524,7 +16942,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" ht="156.75" spans="1:6">
+    <row r="9" ht="99.75" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>658</v>
       </c>
@@ -16542,7 +16960,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" ht="156.75" spans="1:6">
+    <row r="10" ht="99.75" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>703</v>
       </c>
@@ -16582,7 +17000,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" ht="57" spans="1:6">
+    <row r="12" ht="28.5" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>710</v>
       </c>
@@ -16600,7 +17018,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" ht="57" spans="1:6">
+    <row r="13" ht="42.75" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>712</v>
       </c>
@@ -16618,7 +17036,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:6">
+    <row r="14" ht="42.75" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>714</v>
       </c>
@@ -16638,7 +17056,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" ht="71.25" spans="1:6">
+    <row r="15" ht="42.75" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>717</v>
       </c>
@@ -16656,7 +17074,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" ht="85.5" spans="1:6">
+    <row r="16" ht="57" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>719</v>
       </c>
@@ -16674,7 +17092,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" ht="85.5" spans="1:6">
+    <row r="17" ht="57" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>726</v>
       </c>
@@ -16710,7 +17128,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" ht="86.25" spans="1:6">
+    <row r="19" ht="57.75" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>730</v>
       </c>
@@ -16790,7 +17208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="114.75" spans="1:6">
+    <row r="3" ht="100.5" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>499</v>
       </c>
@@ -16862,7 +17280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" ht="42.75" spans="1:6">
+    <row r="7" ht="28.5" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>520</v>
       </c>
@@ -16880,7 +17298,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" ht="44.25" spans="1:6">
+    <row r="8" ht="43.5" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>742</v>
       </c>
@@ -16898,7 +17316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" ht="87" spans="1:6">
+    <row r="9" ht="72.75" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>745</v>
       </c>
@@ -16916,7 +17334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" ht="43.5" spans="1:6">
+    <row r="10" ht="29.25" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>748</v>
       </c>
@@ -16952,7 +17370,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" ht="87" spans="1:6">
+    <row r="12" ht="72.75" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>754</v>
       </c>
@@ -17024,7 +17442,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" ht="102" spans="1:6">
+    <row r="16" ht="87.75" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>762</v>
       </c>
@@ -17062,7 +17480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="1:6">
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>766</v>
       </c>
@@ -17082,7 +17500,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" ht="42.75" spans="1:6">
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>768</v>
       </c>
@@ -17310,7 +17728,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" ht="71.25" spans="1:6">
+    <row r="31" ht="57" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>552</v>
       </c>
@@ -17350,7 +17768,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" ht="57" spans="1:6">
+    <row r="33" ht="42.75" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>146</v>
       </c>
@@ -17466,7 +17884,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" ht="71.25" spans="1:6">
+    <row r="39" ht="57" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>784</v>
       </c>
@@ -17550,7 +17968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="129" spans="1:6">
+    <row r="2" ht="100.5" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>499</v>
       </c>
@@ -17566,7 +17984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>348</v>
       </c>
@@ -17684,7 +18102,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="57.75" spans="1:6">
+    <row r="10" ht="43.5" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>518</v>
@@ -17712,7 +18130,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="57" spans="1:6">
+    <row r="13" ht="42.75" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>520</v>
       </c>
@@ -17768,7 +18186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" ht="57" spans="1:6">
+    <row r="16" ht="42.75" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
@@ -17806,7 +18224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" ht="99.75" spans="1:6">
+    <row r="18" ht="85.5" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>302</v>
       </c>
@@ -17842,7 +18260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" ht="99.75" spans="1:6">
+    <row r="20" ht="71.25" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>317</v>
       </c>
@@ -17860,7 +18278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" ht="71.25" spans="1:6">
+    <row r="21" ht="57" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>319</v>
       </c>
@@ -17878,7 +18296,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="42.75" spans="1:6">
+    <row r="22" ht="28.5" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>537</v>
       </c>
@@ -17970,7 +18388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" ht="71.25" spans="1:6">
+    <row r="27" ht="57" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>360</v>
       </c>
@@ -18044,7 +18462,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" ht="72" spans="1:6">
+    <row r="31" ht="57.75" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>400</v>
       </c>
@@ -18122,7 +18540,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" ht="85.5" spans="1:6">
+    <row r="35" ht="57" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>552</v>
       </c>
@@ -18142,7 +18560,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" ht="57" spans="1:6">
+    <row r="36" ht="42.75" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>554</v>
       </c>
@@ -18182,7 +18600,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" ht="42.75" spans="1:6">
+    <row r="38" ht="28.5" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>556</v>
       </c>
@@ -18274,7 +18692,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" ht="128.25" spans="1:6">
+    <row r="43" ht="99.75" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>321</v>
       </c>
@@ -18294,7 +18712,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="44" ht="85.5" spans="1:6">
+    <row r="44" ht="71.25" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>323</v>
       </c>
@@ -18314,7 +18732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" ht="71.25" spans="1:6">
+    <row r="45" ht="57" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>325</v>
       </c>
@@ -18334,7 +18752,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" ht="71.25" spans="1:6">
+    <row r="46" ht="57" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>327</v>
       </c>
@@ -18354,7 +18772,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" ht="57" spans="1:6">
+    <row r="47" ht="42.75" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>336</v>
       </c>
@@ -18390,7 +18808,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="49" ht="42.75" spans="1:6">
+    <row r="49" ht="28.5" spans="1:6">
       <c r="A49" s="4" t="s">
         <v>350</v>
       </c>
@@ -18426,7 +18844,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" ht="42.75" spans="1:6">
+    <row r="51" ht="28.5" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>365</v>
       </c>
